--- a/data/7월 상망 적용 파일/북미삼성TV(7월)_220624.xlsx
+++ b/data/7월 상망 적용 파일/북미삼성TV(7월)_220624.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young hwa park\Desktop\yhp\source\filelive_4.0\setting_automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young hwa park\Desktop\yhp\source\filelive_4.0\setting_automation\data\7월 상망 적용 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4248,41 +4248,41 @@
     <t>/CLIP/COCOS/SST/B120173859/794145/B120173859_794145_g60_t31.mp4</t>
   </si>
   <si>
+    <t>Ad Point 2</t>
+  </si>
+  <si>
+    <t>Ad Point 3</t>
+  </si>
+  <si>
+    <t>Ad Point 4</t>
+  </si>
+  <si>
+    <t>Ad Point 5</t>
+  </si>
+  <si>
+    <t>Ad Point 6</t>
+  </si>
+  <si>
+    <t>Ad Point 7</t>
+  </si>
+  <si>
+    <t>Ad Point 8</t>
+  </si>
+  <si>
+    <t>Ad Point 9</t>
+  </si>
+  <si>
+    <t>Ad Point 10</t>
+  </si>
+  <si>
+    <t>Ad Point 11</t>
+  </si>
+  <si>
+    <t>Ad Point 12</t>
+  </si>
+  <si>
     <t>Ad Point 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ad Point 2</t>
-  </si>
-  <si>
-    <t>Ad Point 3</t>
-  </si>
-  <si>
-    <t>Ad Point 4</t>
-  </si>
-  <si>
-    <t>Ad Point 5</t>
-  </si>
-  <si>
-    <t>Ad Point 6</t>
-  </si>
-  <si>
-    <t>Ad Point 7</t>
-  </si>
-  <si>
-    <t>Ad Point 8</t>
-  </si>
-  <si>
-    <t>Ad Point 9</t>
-  </si>
-  <si>
-    <t>Ad Point 10</t>
-  </si>
-  <si>
-    <t>Ad Point 11</t>
-  </si>
-  <si>
-    <t>Ad Point 12</t>
   </si>
 </sst>
 </file>
@@ -4375,10 +4375,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4885,7 +4885,7 @@
   <dimension ref="A1:Z602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P2"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4910,92 +4910,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>1408</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>1409</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>1410</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>1411</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>1412</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>1413</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>1414</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>1415</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>1416</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>1417</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>1418</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>1419</v>
-      </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8" t="s">
+      <c r="R1" s="7"/>
+      <c r="S1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8" t="s">
+      <c r="T1" s="7"/>
+      <c r="U1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8" t="s">
+      <c r="V1" s="7"/>
+      <c r="W1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8" t="s">
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="8"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
       <c r="Q2" s="3" t="s">
         <v>9</v>
       </c>
@@ -46339,6 +46339,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A1:A2"/>
@@ -46355,11 +46360,6 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
